--- a/T41_V012_Files_01-15-24/T41_V012_BOMs/Source Files/T41_Main_Board_BOM_All_V12.6_09-28-24.xlsx
+++ b/T41_V012_Files_01-15-24/T41_V012_BOMs/Source Files/T41_Main_Board_BOM_All_V12.6_09-28-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\T41_V012_Files_01-15-24\T41_V012_BOMs\Source Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99FCC5B-8AF8-4853-9FF3-1959DFDEE920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2613277-5F59-42DD-8886-832545135420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="181">
   <si>
     <t>Quantity</t>
   </si>
@@ -844,6 +844,9 @@
   <si>
     <t>70-IFSC2020DER100M01</t>
   </si>
+  <si>
+    <t>490-10814-1-ND</t>
+  </si>
 </sst>
 </file>
 
@@ -852,7 +855,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1103,6 +1106,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="26">
@@ -1421,7 +1430,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1482,6 +1491,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -2102,7 +2112,7 @@
   <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2390,6 +2400,9 @@
       <c r="E12" t="s">
         <v>20</v>
       </c>
+      <c r="G12" t="s">
+        <v>180</v>
+      </c>
       <c r="H12" s="13">
         <v>0.47</v>
       </c>
@@ -3312,8 +3325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{654AF2B0-A25E-4579-92A7-2605A258747F}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3533,6 +3546,9 @@
       </c>
       <c r="E9" t="s">
         <v>20</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>180</v>
       </c>
       <c r="H9" s="13">
         <v>0.47</v>
